--- a/projeto1/test/graphs/xls/exata_200mb.xlsx
+++ b/projeto1/test/graphs/xls/exata_200mb.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cavalcanti/Documents/git/ufpe/string-processing/projeto1/test/graphs/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8959604-D2C6-8140-A2E6-8E233763F355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D63D8F-63E1-BC42-8887-6F0B3A118A57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="960" windowWidth="24540" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="760" windowWidth="24540" windowHeight="14480"/>
   </bookViews>
   <sheets>
     <sheet name="exata_200mb_clear" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -703,79 +706,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.112</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.436</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.183</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.109</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -783,7 +786,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3FB6-064D-B12F-2D45279EFD67}"/>
+              <c16:uniqueId val="{00000000-C451-C24F-9116-87D280C3CF40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -824,49 +827,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.38700000000000001</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26200000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.251</c:v>
+                  <c:v>0.434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.217</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34100000000000003</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32900000000000001</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.42699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.215</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.214</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.42799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.42399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.215</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +877,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3FB6-064D-B12F-2D45279EFD67}"/>
+              <c16:uniqueId val="{00000001-C451-C24F-9116-87D280C3CF40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -915,79 +918,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.45600000000000002</c:v>
+                  <c:v>0.95299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.314</c:v>
+                  <c:v>1.073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.253</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27400000000000002</c:v>
+                  <c:v>0.68500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.252</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25700000000000001</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.54900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.253</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.249</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.254</c:v>
+                  <c:v>0.84199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27700000000000002</c:v>
+                  <c:v>0.56200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27300000000000002</c:v>
+                  <c:v>0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.56299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,7 +998,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3FB6-064D-B12F-2D45279EFD67}"/>
+              <c16:uniqueId val="{00000002-C451-C24F-9116-87D280C3CF40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1036,79 +1039,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>1.2490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44600000000000001</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.497</c:v>
+                  <c:v>0.96599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41699999999999998</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.82299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45100000000000001</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43099999999999999</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.82399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.443</c:v>
+                  <c:v>0.89800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.438</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.433</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.432</c:v>
+                  <c:v>0.93100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.439</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48399999999999999</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52800000000000002</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.435</c:v>
+                  <c:v>0.86599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42199999999999999</c:v>
+                  <c:v>0.84699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,7 +1119,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3FB6-064D-B12F-2D45279EFD67}"/>
+              <c16:uniqueId val="{00000003-C451-C24F-9116-87D280C3CF40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1157,79 +1160,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.093</c:v>
+                  <c:v>2.3039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.252</c:v>
+                  <c:v>2.5880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5840000000000001</c:v>
+                  <c:v>3.1389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.859</c:v>
+                  <c:v>3.51</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0430000000000001</c:v>
+                  <c:v>4.0670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.194</c:v>
+                  <c:v>4.3739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.48</c:v>
+                  <c:v>4.9939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.113</c:v>
+                  <c:v>6.0270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.14</c:v>
+                  <c:v>7.1109999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.32</c:v>
+                  <c:v>7.0060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5590000000000002</c:v>
+                  <c:v>7.1139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9689999999999999</c:v>
+                  <c:v>8.3160000000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.3209999999999997</c:v>
+                  <c:v>8.9649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.5709999999999997</c:v>
+                  <c:v>9.0570000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1710000000000003</c:v>
+                  <c:v>8.4039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.35</c:v>
+                  <c:v>10.875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.4160000000000004</c:v>
+                  <c:v>10.824</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.1079999999999997</c:v>
+                  <c:v>11.178000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.2380000000000004</c:v>
+                  <c:v>12.654</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.8879999999999999</c:v>
+                  <c:v>14.276999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.5620000000000003</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.6390000000000002</c:v>
+                  <c:v>14.618</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.351</c:v>
+                  <c:v>14.488</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.76</c:v>
+                  <c:v>15.268000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.1329999999999991</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,7 +1240,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3FB6-064D-B12F-2D45279EFD67}"/>
+              <c16:uniqueId val="{00000004-C451-C24F-9116-87D280C3CF40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1363,7 +1366,7 @@
         <c:axId val="1020704176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8"/>
+          <c:max val="16"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1685,79 +1688,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.112</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.436</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.183</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>0.192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.108</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.111</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.11799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>0.109</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.6999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.3999999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.0999999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.1999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.7000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.7000000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.5E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.6000000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>0.129</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>0.10100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.2999999999999999E-2</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.05</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1768,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2FF1-6B45-9203-FBA9B58987E3}"/>
+              <c16:uniqueId val="{00000000-AC40-4F4A-A3B0-C55BB5C2E66C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1806,49 +1809,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.38700000000000001</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22800000000000001</c:v>
+                  <c:v>0.44400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26200000000000001</c:v>
+                  <c:v>0.45800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.251</c:v>
+                  <c:v>0.434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.217</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34100000000000003</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32900000000000001</c:v>
+                  <c:v>0.42499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32800000000000001</c:v>
+                  <c:v>0.42699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.215</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.214</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.42799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.21299999999999999</c:v>
+                  <c:v>0.42399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.215</c:v>
+                  <c:v>0.42599999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,7 +1859,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2FF1-6B45-9203-FBA9B58987E3}"/>
+              <c16:uniqueId val="{00000001-AC40-4F4A-A3B0-C55BB5C2E66C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1897,79 +1900,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.45600000000000002</c:v>
+                  <c:v>0.95299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28299999999999997</c:v>
+                  <c:v>0.58599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.314</c:v>
+                  <c:v>1.073</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.253</c:v>
+                  <c:v>0.53600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27400000000000002</c:v>
+                  <c:v>0.68500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.252</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.92700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.25900000000000001</c:v>
+                  <c:v>0.93700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25700000000000001</c:v>
+                  <c:v>0.59599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26800000000000002</c:v>
+                  <c:v>0.54900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.253</c:v>
+                  <c:v>0.60099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.249</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.26100000000000001</c:v>
+                  <c:v>0.95399999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25</c:v>
+                  <c:v>0.58899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.254</c:v>
+                  <c:v>0.84199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.27500000000000002</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.57899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.27700000000000002</c:v>
+                  <c:v>0.56200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.27300000000000002</c:v>
+                  <c:v>0.55700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.29199999999999998</c:v>
+                  <c:v>0.55600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.27800000000000002</c:v>
+                  <c:v>0.56299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.27200000000000002</c:v>
+                  <c:v>0.61399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28799999999999998</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29399999999999998</c:v>
+                  <c:v>0.56899999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1977,7 +1980,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2FF1-6B45-9203-FBA9B58987E3}"/>
+              <c16:uniqueId val="{00000002-AC40-4F4A-A3B0-C55BB5C2E66C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2018,79 +2021,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.65100000000000002</c:v>
+                  <c:v>1.2490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44600000000000001</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.497</c:v>
+                  <c:v>0.96599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.41699999999999998</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42099999999999999</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41799999999999998</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.83299999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.82299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.45100000000000001</c:v>
+                  <c:v>0.82699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43099999999999999</c:v>
+                  <c:v>0.82199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>0.82399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41599999999999998</c:v>
+                  <c:v>0.82599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.443</c:v>
+                  <c:v>0.89800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.438</c:v>
+                  <c:v>0.84899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.433</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.84299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.432</c:v>
+                  <c:v>0.93100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.439</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48399999999999999</c:v>
+                  <c:v>0.88300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52800000000000002</c:v>
+                  <c:v>0.88800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.435</c:v>
+                  <c:v>0.86599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.42199999999999999</c:v>
+                  <c:v>0.84699999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2101,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2FF1-6B45-9203-FBA9B58987E3}"/>
+              <c16:uniqueId val="{00000003-AC40-4F4A-A3B0-C55BB5C2E66C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2224,7 +2227,7 @@
         <c:axId val="1020704176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="2"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3511,23 +3514,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F419CCA-07F9-514F-9184-32F7F09B8785}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349868AE-2EED-DA4E-AD61-6AB9F33B83FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3549,23 +3552,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30B96E6-3109-9845-AFF9-D17A6D534F9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CF861F-58D9-8F45-9234-738591A30C80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3586,6 +3589,595 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="exata_200mb_clear"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1">
+            <v>0.112</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2">
+            <v>0.17799999999999999</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.183</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0.109</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>0.127</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>7.3999999999999996E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>8.3000000000000004E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>8.4000000000000005E-2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>8.6999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>7.3999999999999996E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>7.0999999999999994E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>7.1999999999999995E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>5.7000000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>6.3E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>4.7E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>6.7000000000000004E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17">
+            <v>5.5E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>5.6000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>0.06</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>5.6000000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>6.2E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>6.0999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>5.0999999999999997E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>5.2999999999999999E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>0.05</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>0.38700000000000001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>0.22800000000000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>0.26200000000000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>0.251</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>0.217</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>0.34100000000000003</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>0.33500000000000002</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>0.32500000000000001</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>0.32900000000000001</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>0.32800000000000001</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>0.215</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>0.214</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>0.21299999999999999</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>0.21299999999999999</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>0.215</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>0.45600000000000002</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52">
+            <v>0.28299999999999997</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53">
+            <v>0.314</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54">
+            <v>0.253</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55">
+            <v>0.27400000000000002</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56">
+            <v>0.252</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57">
+            <v>0.25900000000000001</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58">
+            <v>0.25900000000000001</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59">
+            <v>0.25700000000000001</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60">
+            <v>0.26800000000000002</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61">
+            <v>0.253</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62">
+            <v>0.249</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63">
+            <v>0.26100000000000001</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65">
+            <v>0.254</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66">
+            <v>0.27500000000000002</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67">
+            <v>0.27200000000000002</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68">
+            <v>0.27800000000000002</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69">
+            <v>0.27700000000000002</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>0.27300000000000002</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.29199999999999998</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>0.27800000000000002</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>0.27200000000000002</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>0.28799999999999998</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>0.29399999999999998</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76">
+            <v>0.65100000000000002</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77">
+            <v>0.44600000000000001</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78">
+            <v>0.497</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79">
+            <v>0.41699999999999998</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80">
+            <v>0.42099999999999999</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81">
+            <v>0.41599999999999998</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82">
+            <v>0.41299999999999998</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83">
+            <v>0.41799999999999998</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84">
+            <v>0.41799999999999998</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85">
+            <v>0.41599999999999998</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86">
+            <v>0.41299999999999998</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87">
+            <v>0.45100000000000001</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88">
+            <v>0.43099999999999999</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89">
+            <v>0.41299999999999998</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90">
+            <v>0.41599999999999998</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>0.443</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>0.438</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>0.433</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>0.47499999999999998</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>0.432</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>0.439</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>0.48399999999999999</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>0.52800000000000002</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>0.435</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>0.42199999999999999</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>1.093</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>1.252</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>1.5840000000000001</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>1.859</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>2.0430000000000001</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>2.194</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>2.48</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>3.113</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>3.14</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>3.32</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>3.5590000000000002</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>3.9689999999999999</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>4.3209999999999997</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>4.5709999999999997</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>4.1710000000000003</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>5.35</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>5.4160000000000004</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>6.1079999999999997</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>6.2380000000000004</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>6.8879999999999999</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>7.5620000000000003</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>7.6390000000000002</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>7.351</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>7.76</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>8.1329999999999991</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3884,11 +4476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3898,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.112</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3906,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.17799999999999999</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3914,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>0.183</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3922,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.109</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3930,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>0.127</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3938,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>7.3999999999999996E-2</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3946,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>8.3000000000000004E-2</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3954,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>8.4000000000000005E-2</v>
+        <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3962,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.6999999999999994E-2</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3970,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>7.3999999999999996E-2</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3978,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>7.0999999999999994E-2</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3986,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>7.1999999999999995E-2</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3994,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>5.7000000000000002E-2</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4002,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>6.3E-2</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -4010,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>4.7E-2</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4018,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>6.7000000000000004E-2</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4026,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>5.5E-2</v>
+        <v>0.11899999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4034,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>5.6000000000000001E-2</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4042,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>0.06</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4050,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>5.6000000000000001E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4058,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>6.2E-2</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4066,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>6.0999999999999999E-2</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4074,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>5.0999999999999997E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4082,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>5.2999999999999999E-2</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4090,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>0.05</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4098,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>0.38700000000000001</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4106,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0.22800000000000001</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4114,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0.26200000000000001</v>
+        <v>0.45800000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4122,7 +4714,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>0.251</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4130,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0.217</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4138,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>0.34100000000000003</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4146,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0.33500000000000002</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4154,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>0.32500000000000001</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -4162,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0.32900000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -4170,7 +4762,7 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0.32800000000000001</v>
+        <v>0.42699999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -4178,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>0.215</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -4186,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>0.214</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -4194,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>0.21299999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -4202,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>0.21299999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4210,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>0.215</v>
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -4268,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>0.45600000000000002</v>
+        <v>0.95299999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -4276,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>0.28299999999999997</v>
+        <v>0.58599999999999997</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -4284,7 +4876,7 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>0.314</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -4292,7 +4884,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>0.253</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -4300,7 +4892,7 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>0.27400000000000002</v>
+        <v>0.68500000000000005</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -4308,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>0.252</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -4316,7 +4908,7 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>0.25900000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4324,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>0.25900000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -4332,7 +4924,7 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>0.25700000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -4340,7 +4932,7 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>0.26800000000000002</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -4348,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>0.253</v>
+        <v>0.60099999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -4356,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>0.249</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>0.26100000000000001</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -4372,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>0.25</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>0.254</v>
+        <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -4388,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>0.27500000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,7 +4988,7 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>0.27200000000000002</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,7 +4996,7 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>0.27800000000000002</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4412,7 +5004,7 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>0.27700000000000002</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4420,7 +5012,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>0.27300000000000002</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4428,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>0.29199999999999998</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4436,7 +5028,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>0.27800000000000002</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4444,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>0.27200000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -4452,7 +5044,7 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>0.28799999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4460,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>0.29399999999999998</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4468,7 +5060,7 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>0.65100000000000002</v>
+        <v>1.2490000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4476,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>0.44600000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4484,7 +5076,7 @@
         <v>3</v>
       </c>
       <c r="B78">
-        <v>0.497</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4492,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>0.41699999999999998</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4500,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>0.42099999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -4508,7 +5100,7 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>0.41599999999999998</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -4516,7 +5108,7 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>0.41299999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -4524,7 +5116,7 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>0.41799999999999998</v>
+        <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4532,7 +5124,7 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>0.41799999999999998</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -4540,7 +5132,7 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>0.41599999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -4548,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>0.41299999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -4556,7 +5148,7 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>0.45100000000000001</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>0.43099999999999999</v>
+        <v>0.82199999999999995</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -4572,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>0.41299999999999998</v>
+        <v>0.82399999999999995</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,7 +5172,7 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>0.41599999999999998</v>
+        <v>0.82599999999999996</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -4588,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>0.443</v>
+        <v>0.89800000000000002</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -4596,7 +5188,7 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>0.438</v>
+        <v>0.84899999999999998</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -4604,7 +5196,7 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>0.433</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -4612,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>0.47499999999999998</v>
+        <v>0.84299999999999997</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -4620,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>0.432</v>
+        <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -4628,7 +5220,7 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>0.439</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>0.48399999999999999</v>
+        <v>0.88300000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -4644,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>0.52800000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -4652,7 +5244,7 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>0.435</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -4660,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>0.42199999999999999</v>
+        <v>0.84699999999999998</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -4668,7 +5260,7 @@
         <v>4</v>
       </c>
       <c r="B101">
-        <v>1.093</v>
+        <v>2.3039999999999998</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -4676,7 +5268,7 @@
         <v>4</v>
       </c>
       <c r="B102">
-        <v>1.252</v>
+        <v>2.5880000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -4684,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B103">
-        <v>1.5840000000000001</v>
+        <v>3.1389999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -4692,7 +5284,7 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>1.859</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -4700,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="B105">
-        <v>2.0430000000000001</v>
+        <v>4.0670000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -4708,7 +5300,7 @@
         <v>4</v>
       </c>
       <c r="B106">
-        <v>2.194</v>
+        <v>4.3739999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -4716,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="B107">
-        <v>2.48</v>
+        <v>4.9939999999999998</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -4724,7 +5316,7 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>3.113</v>
+        <v>6.0270000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -4732,7 +5324,7 @@
         <v>4</v>
       </c>
       <c r="B109">
-        <v>3.14</v>
+        <v>7.1109999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -4740,7 +5332,7 @@
         <v>4</v>
       </c>
       <c r="B110">
-        <v>3.32</v>
+        <v>7.0060000000000002</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -4748,7 +5340,7 @@
         <v>4</v>
       </c>
       <c r="B111">
-        <v>3.5590000000000002</v>
+        <v>7.1139999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -4756,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="B112">
-        <v>3.9689999999999999</v>
+        <v>8.3160000000000007</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4764,7 +5356,7 @@
         <v>4</v>
       </c>
       <c r="B113">
-        <v>4.3209999999999997</v>
+        <v>8.9649999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -4772,7 +5364,7 @@
         <v>4</v>
       </c>
       <c r="B114">
-        <v>4.5709999999999997</v>
+        <v>9.0570000000000004</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -4780,7 +5372,7 @@
         <v>4</v>
       </c>
       <c r="B115">
-        <v>4.1710000000000003</v>
+        <v>8.4039999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -4788,7 +5380,7 @@
         <v>4</v>
       </c>
       <c r="B116">
-        <v>5.35</v>
+        <v>10.875</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -4796,7 +5388,7 @@
         <v>4</v>
       </c>
       <c r="B117">
-        <v>5.4160000000000004</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -4804,7 +5396,7 @@
         <v>4</v>
       </c>
       <c r="B118">
-        <v>6.1079999999999997</v>
+        <v>11.178000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4812,7 +5404,7 @@
         <v>4</v>
       </c>
       <c r="B119">
-        <v>6.2380000000000004</v>
+        <v>12.654</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4820,7 +5412,7 @@
         <v>4</v>
       </c>
       <c r="B120">
-        <v>6.8879999999999999</v>
+        <v>14.276999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4828,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="B121">
-        <v>7.5620000000000003</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4836,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="B122">
-        <v>7.6390000000000002</v>
+        <v>14.618</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -4844,7 +5436,7 @@
         <v>4</v>
       </c>
       <c r="B123">
-        <v>7.351</v>
+        <v>14.488</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -4852,7 +5444,7 @@
         <v>4</v>
       </c>
       <c r="B124">
-        <v>7.76</v>
+        <v>15.268000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -4860,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="B125">
-        <v>8.1329999999999991</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
